--- a/output/3Y_P7_KFSDIV.xlsx
+++ b/output/3Y_P7_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -3945,10 +3948,10 @@
         <v>246823.17</v>
       </c>
       <c r="K21" s="1">
-        <v>167204.6359</v>
+        <v>167210.234</v>
       </c>
       <c r="L21" s="1">
-        <v>11.4741</v>
+        <v>11.4745</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -3998,10 +4001,10 @@
         <v>253279.083</v>
       </c>
       <c r="K22" s="1">
-        <v>166384.3091</v>
+        <v>166393.1859</v>
       </c>
       <c r="L22" s="1">
-        <v>11.4645</v>
+        <v>11.4651</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -4051,10 +4054,10 @@
         <v>263796.8474</v>
       </c>
       <c r="K23" s="1">
-        <v>179982.7266</v>
+        <v>179991.6033</v>
       </c>
       <c r="L23" s="1">
-        <v>11.6016</v>
+        <v>11.6022</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -4104,10 +4107,10 @@
         <v>296904.6738</v>
       </c>
       <c r="K24" s="1">
-        <v>196005.5708</v>
+        <v>196014.4476</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7179</v>
+        <v>11.7185</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -4157,10 +4160,10 @@
         <v>297355.1577</v>
       </c>
       <c r="K25" s="1">
-        <v>182780.8555</v>
+        <v>182842.555</v>
       </c>
       <c r="L25" s="1">
-        <v>11.5531</v>
+        <v>11.557</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -4210,10 +4213,10 @@
         <v>285241.1999</v>
       </c>
       <c r="K26" s="1">
-        <v>202408.7992</v>
+        <v>202470.4987</v>
       </c>
       <c r="L26" s="1">
-        <v>11.7516</v>
+        <v>11.7552</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -4263,10 +4266,10 @@
         <v>298027.0325</v>
       </c>
       <c r="K27" s="1">
-        <v>241720.7997</v>
+        <v>241782.4992</v>
       </c>
       <c r="L27" s="1">
-        <v>11.836</v>
+        <v>11.839</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -4316,10 +4319,10 @@
         <v>307732.1119</v>
       </c>
       <c r="K28" s="1">
-        <v>248806.2358</v>
+        <v>248867.9353</v>
       </c>
       <c r="L28" s="1">
-        <v>11.8523</v>
+        <v>11.8552</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -4369,10 +4372,10 @@
         <v>338107.4357</v>
       </c>
       <c r="K29" s="1">
-        <v>259113.9946</v>
+        <v>259175.6941</v>
       </c>
       <c r="L29" s="1">
-        <v>11.8739</v>
+        <v>11.8768</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -4422,10 +4425,10 @@
         <v>357904.3368</v>
       </c>
       <c r="K30" s="1">
-        <v>258140.1496</v>
+        <v>258205.7439</v>
       </c>
       <c r="L30" s="1">
-        <v>11.8703</v>
+        <v>11.8733</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -4475,10 +4478,10 @@
         <v>379363.3743</v>
       </c>
       <c r="K31" s="1">
-        <v>258344.0639</v>
+        <v>258409.6582</v>
       </c>
       <c r="L31" s="1">
-        <v>11.8714</v>
+        <v>11.8744</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -4528,10 +4531,10 @@
         <v>415290.4157</v>
       </c>
       <c r="K32" s="1">
-        <v>256878.3516</v>
+        <v>256949.8052</v>
       </c>
       <c r="L32" s="1">
-        <v>11.8614</v>
+        <v>11.8647</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -4581,10 +4584,10 @@
         <v>440905.5168</v>
       </c>
       <c r="K33" s="1">
-        <v>250719.6136</v>
+        <v>250815.6499</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8061</v>
+        <v>11.8107</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -4634,10 +4637,10 @@
         <v>419819.4209</v>
       </c>
       <c r="K34" s="1">
-        <v>245081.9904</v>
+        <v>245200.5488</v>
       </c>
       <c r="L34" s="1">
-        <v>11.7432</v>
+        <v>11.7489</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -4687,10 +4690,10 @@
         <v>445091.6068</v>
       </c>
       <c r="K35" s="1">
-        <v>286332.8059</v>
+        <v>286451.3643</v>
       </c>
       <c r="L35" s="1">
-        <v>12.0116</v>
+        <v>12.0165</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -4740,10 +4743,10 @@
         <v>456715.822</v>
       </c>
       <c r="K36" s="1">
-        <v>290303.3203</v>
+        <v>290421.8786</v>
       </c>
       <c r="L36" s="1">
-        <v>12.0365</v>
+        <v>12.0414</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -4793,10 +4796,10 @@
         <v>464814.3152</v>
       </c>
       <c r="K37" s="1">
-        <v>298696.7774</v>
+        <v>298815.3357</v>
       </c>
       <c r="L37" s="1">
-        <v>12.0887</v>
+        <v>12.0935</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -4846,10 +4849,10 @@
         <v>516828.0891</v>
       </c>
       <c r="K38" s="1">
-        <v>310612.3537</v>
+        <v>310730.9121</v>
       </c>
       <c r="L38" s="1">
-        <v>12.1565</v>
+        <v>12.1611</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -5985,10 +5988,10 @@
         <v>248350.9971</v>
       </c>
       <c r="K21" s="1">
-        <v>175682.2734</v>
+        <v>175686.0992</v>
       </c>
       <c r="L21" s="1">
-        <v>11.5224</v>
+        <v>11.5226</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -6038,10 +6041,10 @@
         <v>254633.4066</v>
       </c>
       <c r="K22" s="1">
-        <v>175357.0724</v>
+        <v>175362.1981</v>
       </c>
       <c r="L22" s="1">
-        <v>11.5188</v>
+        <v>11.5191</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -6091,10 +6094,10 @@
         <v>265158.4015</v>
       </c>
       <c r="K23" s="1">
-        <v>190182.8529</v>
+        <v>190187.9786</v>
       </c>
       <c r="L23" s="1">
-        <v>11.6573</v>
+        <v>11.6577</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -6144,10 +6147,10 @@
         <v>299518.6162</v>
       </c>
       <c r="K24" s="1">
-        <v>207623.1549</v>
+        <v>207628.2805</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7733</v>
+        <v>11.7736</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -6197,10 +6200,10 @@
         <v>299425.0255</v>
       </c>
       <c r="K25" s="1">
-        <v>194299.7109</v>
+        <v>194358.0537</v>
       </c>
       <c r="L25" s="1">
-        <v>11.6192</v>
+        <v>11.6227</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -6250,10 +6253,10 @@
         <v>285970.1065</v>
       </c>
       <c r="K26" s="1">
-        <v>215694.3085</v>
+        <v>215752.6512</v>
       </c>
       <c r="L26" s="1">
-        <v>11.8178</v>
+        <v>11.821</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -6303,10 +6306,10 @@
         <v>298927.3933</v>
       </c>
       <c r="K27" s="1">
-        <v>258029.5086</v>
+        <v>258087.8513</v>
       </c>
       <c r="L27" s="1">
-        <v>11.8929</v>
+        <v>11.8956</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -6356,10 +6359,10 @@
         <v>308610.5317</v>
       </c>
       <c r="K28" s="1">
-        <v>266263.9611</v>
+        <v>266322.3039</v>
       </c>
       <c r="L28" s="1">
-        <v>11.9089</v>
+        <v>11.9115</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -6409,10 +6412,10 @@
         <v>340338.6232</v>
       </c>
       <c r="K29" s="1">
-        <v>277979.2843</v>
+        <v>278037.627</v>
       </c>
       <c r="L29" s="1">
-        <v>11.9297</v>
+        <v>11.9322</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -6462,10 +6465,10 @@
         <v>360826.3884</v>
       </c>
       <c r="K30" s="1">
-        <v>277706.0907</v>
+        <v>277765.526</v>
       </c>
       <c r="L30" s="1">
-        <v>11.9288</v>
+        <v>11.9314</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -6515,10 +6518,10 @@
         <v>383121.674</v>
       </c>
       <c r="K31" s="1">
-        <v>278721.1103</v>
+        <v>278780.5456</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9335</v>
+        <v>11.9361</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -6568,10 +6571,10 @@
         <v>420992.2979</v>
       </c>
       <c r="K32" s="1">
-        <v>277975.0031</v>
+        <v>278037.421</v>
       </c>
       <c r="L32" s="1">
-        <v>11.929</v>
+        <v>11.9317</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -6621,10 +6624,10 @@
         <v>447837.1722</v>
       </c>
       <c r="K33" s="1">
-        <v>272205.6153</v>
+        <v>272291.0618</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8821</v>
+        <v>11.8858</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -6674,10 +6677,10 @@
         <v>424216.9535</v>
       </c>
       <c r="K34" s="1">
-        <v>267012.0638</v>
+        <v>267118.2584</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8296</v>
+        <v>11.8343</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -6727,10 +6730,10 @@
         <v>450747.2174</v>
       </c>
       <c r="K35" s="1">
-        <v>312544.5303</v>
+        <v>312650.7249</v>
       </c>
       <c r="L35" s="1">
-        <v>12.0919</v>
+        <v>12.096</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -6780,10 +6783,10 @@
         <v>462509.1143</v>
       </c>
       <c r="K36" s="1">
-        <v>317799.6772</v>
+        <v>317905.8717</v>
       </c>
       <c r="L36" s="1">
-        <v>12.1211</v>
+        <v>12.1251</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -6833,10 +6836,10 @@
         <v>470432.8978</v>
       </c>
       <c r="K37" s="1">
-        <v>327905.1908</v>
+        <v>328011.3854</v>
       </c>
       <c r="L37" s="1">
-        <v>12.1765</v>
+        <v>12.1805</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -6886,10 +6889,10 @@
         <v>526305.008</v>
       </c>
       <c r="K38" s="1">
-        <v>341904.2296</v>
+        <v>342010.4242</v>
       </c>
       <c r="L38" s="1">
-        <v>12.2463</v>
+        <v>12.2501</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -8025,10 +8028,10 @@
         <v>249932.3653</v>
       </c>
       <c r="K21" s="1">
-        <v>184679.3252</v>
+        <v>184681.156</v>
       </c>
       <c r="L21" s="1">
-        <v>11.5705</v>
+        <v>11.5706</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -8078,10 +8081,10 @@
         <v>256029.5668</v>
       </c>
       <c r="K22" s="1">
-        <v>184913.3261</v>
+        <v>184915.1569</v>
       </c>
       <c r="L22" s="1">
-        <v>11.5729</v>
+        <v>11.573</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -8131,10 +8134,10 @@
         <v>266560.9819</v>
       </c>
       <c r="K23" s="1">
-        <v>201081.6881</v>
+        <v>201083.5189</v>
       </c>
       <c r="L23" s="1">
-        <v>11.7127</v>
+        <v>11.7128</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -8184,10 +8187,10 @@
         <v>302260.1704</v>
       </c>
       <c r="K24" s="1">
-        <v>220075.7061</v>
+        <v>220077.5368</v>
       </c>
       <c r="L24" s="1">
-        <v>11.8281</v>
+        <v>11.8282</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -8237,10 +8240,10 @@
         <v>301582.8557</v>
       </c>
       <c r="K25" s="1">
-        <v>206694.2814</v>
+        <v>206749.5608</v>
       </c>
       <c r="L25" s="1">
-        <v>11.6846</v>
+        <v>11.6878</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -8290,10 +8293,10 @@
         <v>286682.7266</v>
       </c>
       <c r="K26" s="1">
-        <v>230036.495</v>
+        <v>230091.7745</v>
       </c>
       <c r="L26" s="1">
-        <v>11.8834</v>
+        <v>11.8862</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -8343,10 +8346,10 @@
         <v>299825.0262</v>
       </c>
       <c r="K27" s="1">
-        <v>275683.2834</v>
+        <v>275738.5629</v>
       </c>
       <c r="L27" s="1">
-        <v>11.9489</v>
+        <v>11.9513</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -8396,10 +8399,10 @@
         <v>309484.1527</v>
       </c>
       <c r="K28" s="1">
-        <v>285221.0667</v>
+        <v>285276.3461</v>
       </c>
       <c r="L28" s="1">
-        <v>11.9645</v>
+        <v>11.9669</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -8449,10 +8452,10 @@
         <v>342680.8618</v>
       </c>
       <c r="K29" s="1">
-        <v>298529.5213</v>
+        <v>298584.8007</v>
       </c>
       <c r="L29" s="1">
-        <v>11.9842</v>
+        <v>11.9864</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -8502,10 +8505,10 @@
         <v>363920.2422</v>
       </c>
       <c r="K30" s="1">
-        <v>299091.5019</v>
+        <v>299146.7813</v>
       </c>
       <c r="L30" s="1">
-        <v>11.9859</v>
+        <v>11.9881</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -8555,10 +8558,10 @@
         <v>387130.8289</v>
       </c>
       <c r="K31" s="1">
-        <v>301070.6977</v>
+        <v>301125.9772</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9941</v>
+        <v>11.9963</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -8608,10 +8611,10 @@
         <v>427133.5342</v>
       </c>
       <c r="K32" s="1">
-        <v>301197.7436</v>
+        <v>301253.023</v>
       </c>
       <c r="L32" s="1">
-        <v>11.9948</v>
+        <v>11.997</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -8661,10 +8664,10 @@
         <v>455334.0631</v>
       </c>
       <c r="K33" s="1">
-        <v>295947.7827</v>
+        <v>296024.0174</v>
       </c>
       <c r="L33" s="1">
-        <v>11.9563</v>
+        <v>11.9593</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -8714,10 +8717,10 @@
         <v>428910.8072</v>
       </c>
       <c r="K34" s="1">
-        <v>291342.1285</v>
+        <v>291436.7626</v>
       </c>
       <c r="L34" s="1">
-        <v>11.9142</v>
+        <v>11.9181</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -8767,10 +8770,10 @@
         <v>456834.1543</v>
       </c>
       <c r="K35" s="1">
-        <v>341715.9399</v>
+        <v>341810.574</v>
       </c>
       <c r="L35" s="1">
-        <v>12.1704</v>
+        <v>12.1738</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -8820,10 +8823,10 @@
         <v>468748.9541</v>
       </c>
       <c r="K36" s="1">
-        <v>348509.4691</v>
+        <v>348604.1033</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2037</v>
+        <v>12.207</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -8873,10 +8876,10 @@
         <v>476477.0493</v>
       </c>
       <c r="K37" s="1">
-        <v>360641.7746</v>
+        <v>360736.4088</v>
       </c>
       <c r="L37" s="1">
-        <v>12.2623</v>
+        <v>12.2655</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -8926,10 +8929,10 @@
         <v>536671.2151</v>
       </c>
       <c r="K38" s="1">
-        <v>377096.9757</v>
+        <v>377191.6098</v>
       </c>
       <c r="L38" s="1">
-        <v>12.3339</v>
+        <v>12.337</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.701</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8109</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.9322</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5846</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2867</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.0645</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8083</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.5636</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.1788</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.5668</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.962</v>
@@ -10277,10 +10280,10 @@
         <v>303778.9687</v>
       </c>
       <c r="K25" s="1">
-        <v>220081.6776</v>
+        <v>220135.1675</v>
       </c>
       <c r="L25" s="1">
-        <v>11.7519</v>
+        <v>11.7548</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.2659</v>
@@ -10330,10 +10333,10 @@
         <v>287320.6883</v>
       </c>
       <c r="K26" s="1">
-        <v>245571.0777</v>
+        <v>245624.5677</v>
       </c>
       <c r="L26" s="1">
-        <v>11.9504</v>
+        <v>11.953</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.4103</v>
@@ -10383,10 +10386,10 @@
         <v>300635.6093</v>
       </c>
       <c r="K27" s="1">
-        <v>291340.2619</v>
+        <v>291393.7518</v>
       </c>
       <c r="L27" s="1">
-        <v>12.0026</v>
+        <v>12.0048</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.3976</v>
@@ -10436,10 +10439,10 @@
         <v>310277.1596</v>
       </c>
       <c r="K28" s="1">
-        <v>301340.2619</v>
+        <v>301393.7518</v>
       </c>
       <c r="L28" s="1">
-        <v>12.0164</v>
+        <v>12.0186</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.9013</v>
@@ -10489,10 +10492,10 @@
         <v>344533.1048</v>
       </c>
       <c r="K29" s="1">
-        <v>311340.2619</v>
+        <v>311393.7518</v>
       </c>
       <c r="L29" s="1">
-        <v>12.0291</v>
+        <v>12.0311</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.3527</v>
@@ -10542,10 +10545,10 @@
         <v>366551.3623</v>
       </c>
       <c r="K30" s="1">
-        <v>322953.1996</v>
+        <v>323006.6895</v>
       </c>
       <c r="L30" s="1">
-        <v>12.0592</v>
+        <v>12.0612</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8804</v>
@@ -10595,10 +10598,10 @@
         <v>390764.3974</v>
       </c>
       <c r="K31" s="1">
-        <v>326073.1959</v>
+        <v>326126.6858</v>
       </c>
       <c r="L31" s="1">
-        <v>12.0706</v>
+        <v>12.0726</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6268</v>
@@ -10648,10 +10651,10 @@
         <v>433104.4288</v>
       </c>
       <c r="K32" s="1">
-        <v>327252.2033</v>
+        <v>327305.6933</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0763</v>
+        <v>12.0783</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3636</v>
@@ -10701,10 +10704,10 @@
         <v>462800.4921</v>
       </c>
       <c r="K33" s="1">
-        <v>322676.2434</v>
+        <v>322747.9983</v>
       </c>
       <c r="L33" s="1">
-        <v>12.0463</v>
+        <v>12.0489</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8711</v>
@@ -10754,10 +10757,10 @@
         <v>433274.2414</v>
       </c>
       <c r="K34" s="1">
-        <v>318830.0791</v>
+        <v>318917.1993</v>
       </c>
       <c r="L34" s="1">
-        <v>12.0147</v>
+        <v>12.018</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1252</v>
@@ -10807,10 +10810,10 @@
         <v>462741.4479</v>
       </c>
       <c r="K35" s="1">
-        <v>374682.5989</v>
+        <v>374769.7191</v>
       </c>
       <c r="L35" s="1">
-        <v>12.2625</v>
+        <v>12.2654</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1934</v>
@@ -10860,10 +10863,10 @@
         <v>474826.2054</v>
       </c>
       <c r="K36" s="1">
-        <v>383313.0762</v>
+        <v>383400.1964</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2995</v>
+        <v>12.3023</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1176</v>
@@ -10913,10 +10916,10 @@
         <v>482334.8848</v>
       </c>
       <c r="K37" s="1">
-        <v>397841.856</v>
+        <v>397928.9762</v>
       </c>
       <c r="L37" s="1">
-        <v>12.3605</v>
+        <v>12.3633</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3311</v>
@@ -10966,10 +10969,10 @@
         <v>547375.7328999999</v>
       </c>
       <c r="K38" s="1">
-        <v>417191.2471</v>
+        <v>417278.3672</v>
       </c>
       <c r="L38" s="1">
-        <v>12.4333</v>
+        <v>12.4359</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>12.7332</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1565</v>
+        <v>12.1611</v>
       </c>
       <c r="E3" s="1">
-        <v>12.2463</v>
+        <v>12.2501</v>
       </c>
       <c r="F3" s="1">
-        <v>12.3339</v>
+        <v>12.337</v>
       </c>
       <c r="G3" s="1">
-        <v>12.4333</v>
+        <v>12.4359</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>91260.17329999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2355</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6633</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5389</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.4228</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.3118</v>
       </c>
     </row>
   </sheetData>
